--- a/medicine/Mort/Cimetière_israélite_de_la_Colonie_n°1/Cimetière_israélite_de_la_Colonie_n°1.xlsx
+++ b/medicine/Mort/Cimetière_israélite_de_la_Colonie_n°1/Cimetière_israélite_de_la_Colonie_n°1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_la_Colonie_n%C2%B01</t>
+          <t>Cimetière_israélite_de_la_Colonie_n°1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière israélite de la Colonie n°1, en espagnol : Cementerio israelita de la Colonia n°1 est un cimetière situé à la périphérie de la ville de Basavilbaso, destiné initialement aux défunts du hameau de Novibuco 1 de la colonie juive de Lucienville, située dans la province d'Entre Ríos en Argentine. Par la suite, il servira de lieu d'inhumation de tous les habitants juifs de Lucienville, ainsi que de ses environs. 
 Lucienville fait partie des colonies juives fondées en Argentine à la fin du XIXe siècle et au début du XXe siècle par le baron Maurice de Hirsch dans le but de sauver les Juifs de l'Empire russe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_la_Colonie_n%C2%B01</t>
+          <t>Cimetière_israélite_de_la_Colonie_n°1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est créé en 1895, un an après l'installation de Novibuco 1 et s'étend sur huit hectares. Il compte actuellement environ 2 000 tombes. 
 Le terrain est donné à la communauté par Fridel et Paula Jasovitch, un couple sans enfant. Le bâtiment qui sert d'entrée du cimetière est construit en 1967, et est un don de Fridel Jasovitch à la mémoire de son épouse Paula. Le bâtiment contient une pièce pour la Hevra kaddisha, pour la préparation du corps des défunts.  
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_la_Colonie_n%C2%B01</t>
+          <t>Cimetière_israélite_de_la_Colonie_n°1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Tombes remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans tout le cimetière, il n'existe qu'une seule tombe collective, celle de la famille de Jacobo Arcuschin. Les six membres ont été assassinés en 1919 par un peon que Jacobo avait licencié en raison de difficultés financières. Seule une nièce qui habitait avec la famille réussit à se cacher et a pu par la suite confondre le meurtrier. Sur la pierre tombale est inscrit en hébreu: Arrêtez-vous, que tout passant/visiteur s'arrête, les voleurs la nuit ont brisé leurs fenêtres, et ce qui s'est passé après, un meurtrier a tué toute la famille Matzkin-Arcuschin. 
 La tombe du sergent adjoint Jacobo Roskin, mort le 6 novembre 1945, est la seule tombe surmontée d'un buste en bronze. Roskin est représenté en tenue militaire, avec l'uniforme prussien de l'armée argentine. À l'époque il était très rare pour un Juif de faire carrière dans l'armée.
